--- a/www/IndicatorsPerCountry/Madagascar_GDPperCapita_TerritorialRef_1960_2012_CCode_450.xlsx
+++ b/www/IndicatorsPerCountry/Madagascar_GDPperCapita_TerritorialRef_1960_2012_CCode_450.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Madagascar_GDPperCapita_TerritorialRef_1960_2012_CCode_450.xlsx
+++ b/www/IndicatorsPerCountry/Madagascar_GDPperCapita_TerritorialRef_1960_2012_CCode_450.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1096</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>1226</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>893</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>791.722077183</t>
-  </si>
-  <si>
-    <t>719.775522137</t>
-  </si>
-  <si>
-    <t>706.588662974</t>
-  </si>
-  <si>
-    <t>699.906018949</t>
-  </si>
-  <si>
-    <t>678.732611184</t>
-  </si>
-  <si>
-    <t>669.524753997</t>
-  </si>
-  <si>
-    <t>663.543984721</t>
-  </si>
-  <si>
-    <t>667.562566949</t>
-  </si>
-  <si>
-    <t>673.111473768</t>
-  </si>
-  <si>
-    <t>684.097771774</t>
-  </si>
-  <si>
-    <t>694.180145388</t>
-  </si>
-  <si>
-    <t>714.936534433</t>
-  </si>
-  <si>
-    <t>608.527606993</t>
-  </si>
-  <si>
-    <t>649.181279514</t>
-  </si>
-  <si>
-    <t>663.996381609</t>
-  </si>
-  <si>
-    <t>674.996608165</t>
-  </si>
-  <si>
-    <t>689.074711233</t>
-  </si>
-  <si>
-    <t>711.768731559</t>
-  </si>
-  <si>
-    <t>741.517311573</t>
-  </si>
-  <si>
-    <t>691.554369198</t>
-  </si>
-  <si>
-    <t>675.657732525</t>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1871</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>1694</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1160.67053364406</t>
+  </si>
+  <si>
+    <t>1152.64606233185</t>
+  </si>
+  <si>
+    <t>1154.18948369278</t>
+  </si>
+  <si>
+    <t>1132.1717646415</t>
+  </si>
+  <si>
+    <t>1129.84854810737</t>
+  </si>
+  <si>
+    <t>1132.44372349517</t>
+  </si>
+  <si>
+    <t>1152.15458292731</t>
+  </si>
+  <si>
+    <t>1174.22722748086</t>
+  </si>
+  <si>
+    <t>1206.89376146016</t>
+  </si>
+  <si>
+    <t>1238.77641282628</t>
+  </si>
+  <si>
+    <t>1290.10644550925</t>
+  </si>
+  <si>
+    <t>1110.82169780867</t>
+  </si>
+  <si>
+    <t>1198.44325057469</t>
+  </si>
+  <si>
+    <t>1239.89697488554</t>
+  </si>
+  <si>
+    <t>1276.48678813932</t>
+  </si>
+  <si>
+    <t>1322.47951936824</t>
+  </si>
+  <si>
+    <t>1384.18500367718</t>
+  </si>
+  <si>
+    <t>1458.785339507</t>
+  </si>
+  <si>
+    <t>1367.68625725195</t>
+  </si>
+  <si>
+    <t>1349.61983373752</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>1354</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>1381</t>
   </si>
   <si>
     <t>Description</t>
@@ -1354,6 +1372,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1369,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
